--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560360/JX560360_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560360/JX560360_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89326990094</v>
+        <v>45441.83352514866</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1653_1653del']</t>
+          <t>['1553_1602del', '1620_1760del', '1597_1745del', '1532_1606del', '1623_1696del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89326992987</v>
+        <v>45441.83352517759</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['677_677del']</t>
+          <t>['690_734inscgcctattcgctagcgttccactagtcacgttgatcgttcctac', '701_714inscccagtcagagct', '664_696insgcttcggacatcaaggcgatagaatccatgag', '633_693del', '621_670instcagagggtcatcgcataacggttcaatgtcgttgctggaatgtatgat']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89326994722</v>
+        <v>45441.83352519495</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3353_3354insc']</t>
+          <t>['3336_3420insgtcaggagaatcaagctgatctttgggcgctggtgagagctcatgttctccttgggtaaacacttttagtctaataagtgctag', '3373_3459insctaccgggaaccttggtattttgcatgccaatgcccacctcataggtgcccatctctacgcagggccgaatcatggaagcctgaaa', '3350_3384insggtcctttgtggagttcgtctccgctctggttat', '3408_3546del', '3390_3430insacggacttctagtttaatgcacacccggtaatggagtagc']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89326997037</v>
+        <v>45441.83352532556</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1613_1617insccga']</t>
+          <t>['1714_1793inscccctgtaagcatcatcggcgactaaccaccgctcgttgggatctcttcgcaggatgcactgaagatggtagatgtctt', '1681_1697del', '1648_1767inscactgcaatagaaatgcgctcgaagtgaaaagttctcagaattgccgatacttaagacgtaatcttcataccgacgttatacatgcgaacctctactcaagaccttgtggcggtggtgc', '1566_1613inscgttgtcttctgaggcagtatgtaaaatgttaaagggaaagatcaag', '1607_1632insgacagggggatcacggcacaaatct']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['601_601del']</t>
+          <t>['642_709del', '688_812del', '703_840del', '701_720del', '624_714del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89326998773</v>
+        <v>45441.8335253487</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1576_1578del']</t>
+          <t>['1679_1766insagacagctgcgcatccagggatcagttggctgggctcatatgaaaaatcagtcttaatgaaagataatcccctgtatagcgcataat', '1627_1691insgaggcgtaaggagcgcaacacacgcggtcgacacctgcacccgtagtcttcggcctggaaaccg', '1584_1626del', '1688_1704del', '1622_1751instgcctcggaccgacccagcccttttagacccatctgatattaactgctgattgcacgacaagcgaagtagtgtaccctgccgtcatcttcccggtcgccttaccgcctcgaagacgctgcatactcccc']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3366_3371insctatg']</t>
+          <t>['3324_3397insgtttcccgtttcttcactgtggctattcgcgtcaacaagttgttctgtcacaaggggcctacgaagtatcccg', '3344_3388del', '3388_3445del', '3405_3437insgaaaagaatcccggttacagccatcagatatc', '3397_3540instaacgaaacgttctggctaagagcatagctacggttacaagctgcaatctcgatccgcctgtcgataatggtctgtattagagaatcatataaatttggacgctatcttctggagaggcgaccttgcacgaccgacatcacag']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89327000509</v>
+        <v>45441.83352537185</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['611_614del']</t>
+          <t>['674_708del', '607_641del', '657_669del', '604_695instgcggcattcaactgtatccccagctaagcgtatcgggagtcaatattccaggagcaataccgctattgtctcatctactgagagctgtct', '604_708del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3354_3357insgcc']</t>
+          <t>['3412_3521del', '3400_3547del', '3337_3438del', '3361_3400del', '3326_3371instccgcagtctctgtaaacacttaaacaagacgccacgggatcggc']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89327002829</v>
+        <v>45441.83352538922</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1698_1699inst']</t>
+          <t>['1690_1711inscggctaagcccgaacgccagg', '1682_1704del', '1613_1692del', '1574_1698del', '1676_1789del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['613_614del']</t>
+          <t>['633_729insgggtcccagataacgtaggtcaatagtgtccagacggaatcgcgggaactgagtgcagatcataggacaaccatggcgtctctaggatgccaaagc', '615_692del', '664_771del', '631_710insgaaacgatgttgttagtggacattcatcaagttcacatctgcggtccgctcgatcatggtgattaaatgaatgagaacc', '641_749insgcgagtgcgaagattagaaaggcacctaggctgagtcacacgatcgcttagtaattgggtcacagactgtttgttctaaaactcctctctggtgtcgagaaacgtacg']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3409t&gt;a']</t>
+          <t>['3342_3381del', '3349_3402insgtatttaatgatcacagcaatacgggagtaccaagacaataactgaaagcatc', '3338_3408del', '3323_3396inscaatggactttgcgaaaacggctccttggctcatgagaaaataaatctcgatatctggagcgttcagtaagaa', '3372_3464insctcttggatggaaactagagttgtgattgtcaactgccctaaatgtgtccgatccagcgcacctcgaagcgtcaccatacatcactaacgca']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89327004565</v>
+        <v>45441.83352541322</v>
       </c>
     </row>
   </sheetData>
